--- a/500all/speech_level/speeches_CHRG-114hhrg93282.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Good morning. The quest for true religious freedom is one of humanity's greatest and most enduring dreams. Indeed, America's forebears fled the tyrannies of religious oppression abroad in the longing hope that America would be the place where they would find that freedom yearned for in every human heart to live according to the convictions of their faith.    Our Founding Fathers recognized and protected this foundational human right by enshrining it forever in the very first amendment to the United States Constitution. It states very simply and clearly that ``Congress shall make no law respecting an establishment of religion or prohibiting the free exercise thereof.''    Those noble, straightforward words, because of their enormous meaning and implication, have often been the target of distortion and attack. In 1990, the Supreme Court handed down the Employment Division v. Smith decision. It set the bar so low in allowing for the Government's infringing on religious freedom, that in many cases individuals could not successfully challenge overreaching laws that contradicted their faith. The Smith decision was widely regarded as one of the most radical departures from this long-settled Constitutional doctrine in American history.    In response to the Smith decision, with incredibly broad bipartisan support, Congress passed the Religious Freedom Restoration Act in 1993. That law restored the pre-Smith compelling interest standard, and along with it, religious liberty in America.    And in 2000, in direct response to another Supreme Court decision that threatened religious liberty, Congress passed the Religious Land Use and Institutionalized Persons Act, which prohibits the application of neutral and generally applicable laws in ways that substantially burden religion related to zoning, land marking, and prisons.    In his written testimony before the Senate Judiciary Committee on September 18th, 1992, Professor Douglas Laycock stated, ``there is a simple reason why formerly neutral laws sometimes lead to religious persecution: because once government demands that religious minorities conform their behavior to secular standards, there is no logical stopping point. Sometimes the government will back off and create an exemption, but often the bureaucracy will grind forward, and persecution will be the result.''    These critical statutes exist today because a broad group of lawmakers, organizations and Americans from both sides of the aisle believe that religious freedom was and is far more vital than that afforded by those profoundly flawed Supreme Court decisions. Support for religious freedom remains one of the very strongest commitments of the American people. According to a December 2012 Gallup Poll, nearly 70 percent of American adults are very religious or moderately religious, based on self-reports of the importance of religion in their daily lives and attendance at religious services.    Despite its critical importance to our Republic and a clear message from Congress and the American people, this current Administration's attitude toward religious freedom is nothing short of alarming. The Obama administration has consistently failed to recognize that religious liberty involves much more than the freedom to believe in any religion or none at all, rather, that religious liberty is exercised both in private and in public, informing all areas of an individual's life.    Religion in the United States has never been forcibly confined to one's church or one's home. In spite of the Constitution's clear provisions for the accommodation of religion, this Administration has repeatedly failed to create and honor needed religious exemptions from otherwise neutral laws.    In the last 3 years, the United States Supreme Court has ruled in favor of religious plaintiffs and against this Administration five times. Indeed, three of those five cases have been unanimous. This is stunning evidence of the Obama administration's failure to honor religious freedom in America.    My friends, the central phrase, the central phrase of America's Declaration of Independence is itself a statement of religious conviction. It states clearly that we are all created, and that is what makes us equal, and further, that each of us is endowed by our creator with the unalienable rights of life, liberty and the pursuit of happiness. It is so unfortunate that we must repeatedly remind the Obama administration that religious freedom is the very cornerstone of all other freedoms and that if it is lost, all other freedoms will ultimately be lost with it.    I look forward to today's examination of the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act. And I would like to thank our witnesses for being here.    And I will now yield to the distinguished Ranking Member of the full Committee for an opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman.    Members of the Committee, religious freedom, of course, was one of the core principles upon which our Nation was founded. This freedom was important enough that protections against unwarranted government intrusion into religious practice was enshrined in the First Amendment to our Constitution, and that is also why, after the Supreme Court in Employment Division v. Smith eliminated the compelling interest test for scrutinizing free exercise clause claims, a bipartisan coalition helped to shepherd the Religious Freedom Restoration Act of 1993 into law to restore those earlier protections.    The act has successfully helped to protect religious liberty over the last generation, yet recent developments have been troubling for those of us who believe that exemptions from generally applicable laws shouldn't be used to undermine women's health or the guarantee of equal treatment under the law. Unfortunately, in my view, the Supreme Court subverted congressional intent and undermined the act's purpose in Burwell v. Hobby Lobby. In that decision, the court held that for-profit corporations were entitled to an exemption under the Religious Freedom Restoration Act from the Affordable Care Act's contraception mandate because of the corporate owner's religious objection to the mandate.    To reach that holding, the court had to conclude that the precedents governing the Free Exercise Clause prior to Smith no longer governed interpretations of the Religious Freedom Restoration Act. That conclusion, to me, is contrary to what Congress intended when it passed the act. Indeed, the statute itself unambiguously made clear that its purpose was to restore the compelling interest test that applied to governmental burdens on the free exercise of religion prior to Smith.    Pre-Smith law was clear that commercial enterprises were not entitled to religious exemptions under the Free Exercise Clause. Also, as Justice Ginsburg noted in her strong dissent, no Constitutional tradition nor any prior decision interpreting this act allowed religious exemptions when such an accommodation harmed third parties. Yet that is exactly what happened in Hobby Lobby when the court denied contraceptive coverage to the company's women employees and shifted the costs of Hobby Lobby's religious accommodation onto those women.    A particularly troubling implication of the court's broad and unsupported interpretation of the Religious Freedom Restoration Act is that for-profit commercial entities can now seek exemptions from other generally applicable laws, including anti-discrimination laws. This clear threat to anti-discrimination laws could include efforts by businesses to exempt themselves under State versions of the Religious Freedom Restoration Act from State and local laws prohibiting discrimination on the basis of sexual orientation or gender.    It could also manifest itself in efforts by for-profit businesses to exempt themselves from any Federal efforts to combat discrimination against members of the lesbian, gay, bisexual and transgender communities, such as President Obama's executive order prohibiting discrimination against such individuals who are employees of Federal contractors.    And notwithstanding the assurances of the court's Hobby Lobby majority, it is entirely possible that a business claiming a sincerely held religious belief, for example, in White supremacy, could justify exemptions from Federal civil rights laws.    At the very least, we in Congress must examine how the Religious Freedom Restoration Act can be amended to address the very problematic reasoning of the Hobby Lobby decision.    While there is broad bipartisan support for the Religious Freedom Restoration Act and for strong protection of religious liberty, we have to acknowledge that we live in a pluralistic and religiously diverse society.    The act was meant to protect all, not to favor some at others' expense, and so at a minimum, we here should amend the act to address third-party harm to make clear that pre-Smith Free Exercise Clause precedents apply and limit the act's interpretation.    I thank you, Mr. Chairman.    I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman.    And I now yield to the Chairman of the full Committee, Mr. Goodlatte, from Virginia.</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    In 1777, Thomas Jefferson drafted a bill for establishing religious freedom. Introduced in the Virginia General Assembly in 1779, it was enacted into law on January 16, 1786, as the Virginia Statute for Religious Freedom. Last month we honored the Virginia Statute for Religious Freedom's 229th anniversary.    This Virginia law remains relevant today. In addition to being a model for the Free Exercise Clause of the First Amendment, its language continues to provide wisdom. The statute, for example, states in part, the opinions of men are not the object of civil government, nor under its jurisdiction.    This morning the Subcommittee on the Constitution and Civil Justice will examine the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act. These two laws are vitally important means of protecting religious liberty in the United States and individuals' opinions from an interceding government.    The Religious Freedom Restoration Act prohibits the Federal Government from substantially burdening a person's exercise of religion even if the burden results from a rule of general applicability. The exception is that the government may burden a person's exercise of religion only if it demonstrates that application of the burden to the person, one, furthers a compelling governmental interest, and two, is the least restrictive means of furthering that compelling governmental interest.    I cosponsored this legislation when the Religious Freedom Restoration Act passed the House and Senate and was signed by the President in the 103rd Congress, and I was amazed at the incredible bipartisan support the bill generated. Senator Charles Schumer, who was then representing the Ninth District of New York in the House and a Member of this Committee, introduced the bill. By the time the bill passed by a voice vote, it had the support of 170 cosponsors from both sides of the aisle.    A diverse array of organizations formed a bipartisan coalition to support this bill. This coalition included over 50 organizations, including the American Civil Liberties Union, Americans United for the Separation of Church and State, the Home School Legal Defense Association, the Traditional Values Coalition, Concerned Women for America, and the Christian Life Commission of the Southern Baptist Convention. It was incredible to see all sides come together for such an important piece of legislation.    Reflecting the same language as the Religious Freedom Restoration Act, the Religious Land Use and Institutionalized Persons Act prohibits any government from imposing or implementing a land use regulation in a manner that places a substantial burden on the religious exercise of a person, including a religious assembly or institution, unless the government demonstrates the burden, one, is in furtherance of a compelling governmental interest, and two, is the least restrictive means of furthering that compelling governmental interest.    It provides a similar religious protection for institutionalized persons, including prisoners. Congress made it clear that the Federal Government must provide religious accommodations in our laws, and any laws passed that infringe upon religious freedom must be subject to the strictest scrutiny in our courts.    And while religious liberty remains threatened, I am nevertheless encouraged by recent Supreme Court decisions in favor of religious plaintiffs. These cases indicate the religious protections passed by Congress are working. While not determining the outcome of any case, these crucial statutes provide individuals with practical and meaningful ways to challenge government infringements on their religious beliefs in court.    I want to thank all of our witnesses for coming today and I look forward to their testimony.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chairman.    Today is the first hearing of this particular Subcommittee, and I am the Ranking Member again, and I appreciate that opportunity to serve, and I appreciate serving with Chairman Franks. We have served together as Chair and Ranking Member, and this is a Committee that gets some very emotional issues where people have strong opinions on each side, and yet Mr. Franks has always remained civil and respectful toward the--our side, despite the fact that his opinions are light years away. It is a large universe and we encompass it, but we do it in a good manner, and I appreciate that.    The freedom to practice one's religious free from undue governmental influences is particularly special in American history, and the First Amendment guarantees the right to freedom of religion, along with speech and petition, and our First Amendment protections. And Thomas Jefferson, as Mr. Goodlatte mentioned, he is a big fan of Jefferson's, as am I, has on his resting place in Virginia three things: that he was the father of the Constitution, that he was the founder of the University of Virginia, and that he was the author of the declaration of religious independence or freedoms; nothing about being President or Secretary of State or any of those things, they were mundane, because it was values and ideas and education and liberty and freedom that was so important to him.    He has on the Jefferson Memorial, of course, he doesn't have this, the descendants have this, one of his particular quotes is that, ``I swear upon the altar of God eternal hostility toward all forms of tyranny over the mind of man.''    It is important that we understand that as our Founding Father's legacy and that we adhere to it, and we did in passing the Religious Freedom Restoration Act here. I was not here at the time. Mr. Goodlatte was.    But I was in the Tennessee State Senate, and I passed the Tennessee RFRA law and I was proud to do it. And there was that great coalition, as he mentioned here, of the ACLU to the Southern Baptist Convention, or something associated therewith, and all kind of diverse religious groups and folks about the First Amendment were all for it. And that was wonderful. And it was about, really, Employment Division v. Smith, and it was a direct reaction to that case that RFRA was passed with this broad bipartisan support and that we passed it in Tennessee as well.    Unfortunately, our Supreme Court, in its corporatization of America, which of course has also been part of the work of this Congress, took religious freedom from the ideas that were really held by Jefferson and others about individuals being oppressed by the government and gave it to corporations, and nobody had ever envisioned that, like nobody had envisioned corporations having the right to have free speech, free speech in the thousands and hundreds of thousands and millions of dollars to influence legislation and who gets elected and how the laws are made so that the tax rates are appropriate for those who have much so they could have much more and do much more trickle-down.    So the corporatization of America has taken place, and the courts did it in this case, and that is what happened and what broke apart that great bipartisan coalition that we were so proud of in passing RFRA.    To be concerned about the Hobby Lobby case, which is part of a whole series of cases with the Supreme Court and legislative actions that nobody would have envisioned, giving corporations rights and worshiping to the altar of the corporate god does not mean you are against religion. You can still be for religion.    And I am for religion and I'm for the separation of church and state and I'm for the First Amendment and I'm for RFRA as it was envisioned when it was passed and restore those pre-Smith laws, but the Hobby Lobby decision was aberrant, and that's why I and many other people who have deep--thought and felt commitments to religious liberty oppose Hobby Lobby decision, they still believe in RFRA, and they just think RFRA went too long.    It was an activist court, activist in the worst way, activists that gave powers to people that we never envisioned; not activists that went far to give minorities opportunity and minorities rights. It went far to give corporations rights. That's the wrong type of activism, in my opinion.    But I look forward to this hearing and listening to all of the witnesses and working with Mr. Franks as we go forward.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t xml:space="preserve">    Mr. Franks. The man is from Virginia.    Let me now introduce our witnesses. Our first witness is Lori Windham, senior counsel at the Becket Fund For Religious Freedom--for Religious Liberty. Ms. Windham has represented a variety of religious groups at every level, from the district courts to the Supreme Court. Her work includes the cases under the Free Exercise Clause, Establishment Clause, RFRA, and RLUIPA. We're glad you're here.    Our second witness is Gregory Baylor, senior counsel with Alliance Defending Freedom. Mr. Baylor litigates cases to protect the rights of religious students, faculty and staff at public colleges and universities across the Nation. Prior to joining Alliance Defending Freedom in 2009, he served as director with the Christian Legal Society Center for Law and Religious Freedom, where he defended religious liberty since 1994.    Our third witness, Professor Nelson Tebbe, teaches courses on Constitutional law, religious freedom, legal theory, and professional responsibility at Brooklyn Law School. Professor Tebbe is a co-organizer of the annual Law and Religion Roundtable and has previously served as the chair of the Law and Religion section of the Association of American Law Schools.    Our fourth and final witness, Craig Parshall, is special counsel to the American Center for Law and Justice. In addition to being a senior law and policy advisor to Washington, D.C.-based groups, Mr. Parshall writes and speaks about trends in Constitutional issues, culture, religion and media technology. He previously served as senior vice-president and general counsel at National Religious Broadcasters and was the founding director of the John Milton Project for Free Speech. Welcome, sir.    Now, each of the witness' written statements will be entered into the record in its entirety, and I would ask each witness to summarize his or her testimony within 5 minutes or less. To help you stay within that time, there is a timing light in front of you. The lights will switch from green to yellow in concluding, indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    Before I recognize the witness, it is the tradition of the Subcommittee that they be sworn. So if you'd please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth and nothing but the truth, so help you God?    You may be seated.    Let the record reflect that the witnesses answered in the affirmative.    I now recognize our first witness, Ms. Windham. And, Ms. Windham, if you want to make sure we turn on that microphone before you start. Yes, ma'am.</t>
   </si>
   <si>
-    <t>Windham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Windham. Thank you, Chairman Franks, vice-chairman DeSantis, and other distinguished Members of the Subcommittee. Good morning.    Thank you for the invitation and opportunity to testify on the importance of the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act.    I represent the Becket Fund for Religious Liberty, where I serve as senior counsel. The Becket Fund is a non-profit public interest law firm dedicated to protecting the free expression of all religious traditions. For over 20 years, it has defended clients of all faiths, including Buddhists, Christians, Jews, Hindus, Muslims, Native Americans, Sikhs and other faith groups.    Its recent cases include three major Supreme Court victories: a unanimous ruling in a RLUIPA case, Holt v. Hobbs; the RFRA case of Burwell v. Hobby Lobby; and another unanimous ruling in Hosanna-Tabor v. EEOC.    Today I'd like to highlight the positive impacts of RFRA and RLUIPA for protecting the rights of Americans of all faiths, well known and little known, large and small. One example. According to documents released by the Department of the Interior, the department had an operation called Operation Pow-Wow.    Under Operation Pow-Wow, the department sent an undercover Federal agent to covertly enter a sacred Native American religious ceremony. While there, he questioned the participants, observed the ceremony, refused to leave after being asked to do so. The reason for this, the department was looking to see if the Native Americans in their religious ceremony were using permitted or non-permitted eagle feathers. The Becket Fund now represents Robert Soto, a renowned feather dancer and ordained religious leader in the Lipan Apache tribe, a tribe that has used eagle feathers as sacred emblems for centuries.    Federal law grants eagle feather permits to museums, scientists, zoos, farmers and other interests. It even allows wind farms to kill eagles. The Federal Government grants permits for some religious uses, but only if the person is a member of a federally-recognized tribe. Mr. Soto's tribe is recognized by historians, sociologists and the State of Texas, but not by the Federal Government. He is not even allowed to use loose eagle feathers picked up off the ground.    Applying RFRA and Hobby Lobby precedent, the Fifth Circuit ruled against Operation Pow-Wow and for Mr. Soto. Mr. Soto is currently continuing his case in Federal court. As this case shows, RLUIPA's protections, RFRA's protections are still vital today.    When RFRA was passed in 1993, the bill was supported by one of the broadest coalitions in recent political history, with 66 religious and civil liberties groups, including Christians, Jews, Muslims, Sikhs, humanists, and secular civil liberties organizations. RFRA passed with unanimous support in the House and virtually unanimous support in the Senate.    RLUIPA, like RFRA, was enacted with overwhelming bipartisan support. It passed both the House and Senate by unanimous consent. In his signing statement, President Clinton noted that RLUIPA once again demonstrates that people of all political bents and faiths can work together for a common purpose that benefits all Americans.    RLUIPA has provided critical protections for religious exercise. The Supreme Court's recent decision in Holt v. Hobbs, another Becket Fund case, is an excellent example. There, the Supreme Court used RLUIPA to protect a Muslim prison inmate who sought to grow a religiously mandated half-inch beard. The Court recognized that government bureaucrats cannot use arbitrary double standards granting secular exemptions but not similar religious exemptions.    The unanimous Supreme Court explained that RLUIPA affords prison officials ample ability to maintain security. At the same time, RLUIPA requires government officials to scrutinize the asserted harm of granting specific exemptions to particular religious claimants. This is consistent with the statement made by RLUIPA's sponsors, Senators Hatch and Kennedy, who emphasized that inadequately formulated prison regulations and policies grounded on mere speculation, exaggerated fears, or post hoc rationalizations will not suffice to meet the act's requirements.    RLUIPA's land use provisions have allowed houses of worship across the Nation to escape discriminatory or substantially burdensome land use restrictions. RLUIPA protected a Muslim congregation in New Jersey after the City labeled the proposed mosque a public nuisance and tried to seize its land.    One of the earliest RLUIPA victories was for a Christian church in California when the City attempted to seize its land and build a Costco in its place. RLUIPA also protected a Sikh temple when a local government repeatedly gave contradictory reasons for denying its land use applications.    Protection for religious freedom, even when religious practices conflict with otherwise applicable law, is an important part of our Nation's history. We applaud Congress' commitment to the principle that religious freedom is fundamental human freedom and human dignity.    I thank you for your time and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t xml:space="preserve">    Mr. Franks. And I would now recognize our second witness, Mr. Baylor. And, sir, please turn on your microphone. You got it.</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Baylor. Thank you. My name is Gregory Baylor and I serve as senior counsel with Alliance Defending Freedom, a non-profit legal organization that advocates for religious liberty, the sanctity of life, marriage and the family through strategy, funding, training and litigation.    I appreciate very much the opportunity to testify today regarding the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act. I will focus my testimony on RFRA.    In response to a damaging and unexpected Supreme Court decision, Congress restored robust legal protection for religious exercise when it enacted the Religious Freedom Restoration Act in 1993. The coalition supporting RFRA and the foundational principles underlying it was remarkably broad and diverse.    Over 20 years later, support for those principles and perhaps for RFRA itself has notably waned in some quarters. Given this unfortunate development, I think, I believe that a look back at RFRA's enactment and the circumstances surrounding it is warranted.    Beginning in 1963, the United States Supreme Court held that government burdens on religious exercise violate the First Amendment's Free Exercise Clause unless those burdens are justified by interests of the highest order. Under this approach, the court protected, for example, the rights of a Seventh Day Adventist who declined work on her sabbath, and it protected the rights of Old Order Amish families to make religiously-based decisions about the schooling of their children.    In each case, the court understood that most government burdens on religious exercise come from facially neutral and generally applicable laws, ones that do not single out religion for especially disfavored treatment. The court acknowledged also that although important government interests were behind the laws in question in these cases, the State failed to prove that exempting these claimants would unacceptably danger what the court called paramount interests. The court also indicated that government could use other, less restrictive means to pursue its stated goals.    The Supreme Court, of course, unexpectedly abandoned this approach to free exercise in 1990 in Employment Division v. Smith, as has been said. The court concluded that facially neutral laws of general applicability burdening religious exercise generally require no special justifications to satisfy Free Exercise Clause scrutiny.    A large number of religious and civil rights organizations promptly formed the Coalition for the Free Exercise of Religion to urge Congress to restore strong legal protections for religious liberty. The 68-member, or 66- or 54-, I've heard different numbers, member coalition included the Baptist Joint Committee for Religious Liberty, the American Jewish Congress, Americans United for Separation of Church and State, Christian Legal Society, the American Civil Liberties Union, Agudath Israel of America, and the National Association of Evangelicals. The coalition drafted and advocated for legislation designed to restore strict scrutiny to Free Exercise cases. Large numbers of Congressmen and Senators from both sides of the aisle co-sponsored RFRA.    Lawmakers and advocates for the bill emphasized a number of key themes. First, they observed that pervasive governmental regulation adversely affects adherents of all faiths, large or small.    Second, they stressed that RFRA merely set forth the relevant test that judges and other government officials should apply when examining claims of free exercise. RFRA didn't dictate the results in particular cases.    Third, and relatedly, and I think this goes to some of the comments that have already been made, Congress and RFRA's diverse supporters were well aware that the statute's protections might be relevant in cases involving emotionally charged, so-called culture war issues.    Congress subsequently voted overwhelmingly to enact RFRA. It passed the Senate, as has been said, by a vote of 97 to 3, and it passed the House by unanimous voice vote.    Now, recounting this history I hope will help serve as a corrective to the current impulse to doubt the wisdom of that Congress and of the very broad spectrum of individuals and organizations who labored to restore adequate legal protection of religious exercise.    That impulse is driven in no small part by the Supreme Court's relatively recent decision in Burwell v. Hobby Lobby Stores. In that case, of course, the court held that the Federal Government violated RFRA by threatening to impose crippling fines upon family business owners who refused, for reasons of conscience, to include abortion-inducing drugs and devices in their employee health plans.    Unhappiness with the outcome of that case has contributed to a growing skepticism, even hostility, toward RFRA and its underlying principles; indeed, those that have--that would have partially repealed RFRA were introduced last summer in the wake of the Hobby Lobby decision. Thankfully, RFRA survived.    I urge Congress to resist any further efforts to undermine the Religious Freedom Restoration's Act indispensable protection of our first freedom.    Thank you again for the opportunity to testify. I look forward to addressing any questions Members of the Subcommittee may have.</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t xml:space="preserve">    Mr. Franks. And I would now recognize our third witness, Mr. Tebbe.    Mr. Tebbe, please turn your microphone on.</t>
   </si>
   <si>
-    <t>Tebbe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tebbe. Good morning, Chairman Franks and distinguished Members of the Subcommittee.    Thank you for the opportunity, for allowing me to testify on these important questions of religious freedom and equality law. It's an honor to be here, and I look forward to answering your questions.    At least since the Supreme Court's recent decisions in Hobby Lobby and Holt v. Hobbs, debate has been intensifying concerning the two statutes that we are discussing today, the Religious Freedom Restoration Act, or RFRA, and the Religious Land Use and Institutionalized Persons Act, or RLUIPA.    In my testimony, I would like to highlight one problem with how RFRA has been applied, namely, the Hobby Lobby court shifted the cost of accommodating the employer's religious beliefs onto the employees, who may not share those beliefs. That violated a core principle of Constitutional law. While ordinarily the costs of accommodating religious citizens are borne by the government or by the public, here those costs were shifted onto the shoulders of other private citizens.    Protecting religious freedom is critically important, but it cannot come at the cost of meaningful harm to identifiable third parties. Not only should doing that be avoided as a policy matter, but it also violates the religion clauses of the Constitution.    There are at least three ways that the Congress could address this problem. First, it could amend RFRA and RLUIPA to make them inapplicable when accommodating religious actors shifts meaningful harm to identifiable private citizens.    Second, it could amend the statutes to make them inapplicable to commercial actors, which tend to have significant impact on individuals and on the public.    Third, Congress could clarify that it did not intend RFRA and RLUIPA to break completely with judicial precedence under the Free Exercise Clause, case law that embodies the Constitutional principle I have been describing.    Each of these changes would improve the statutes by ensuring that their application conforms with Constitutional principle against shifting costs of religious freedom for some private citizens onto the shoulders of other private citizens.    In its Establishment Clause cases, the Court has invalidated laws that accommodate religious people by shifting costs to others. For example, the court invalidated a Connecticut statute that required all employers to allow employees who observe a sabbath to take that holiday off. The court held that Connecticut law ``contravenes a fundamental principle of the religion clauses, namely, that the First Amendment gives no one the right to insist that in pursuit of their own interests, others must conform their conduct to his own religious necessities.''    In its Free Exercise cases, similarly, the court has denied relief that would mean harming other private citizens. For example, the court refused to grant an exemption to an Amish employer who is theologically opposed to paying Social Security taxes on behalf of his employees. The court held that granting the exemption would impose an unacceptable cost on the third-party employees.    So this legal rule is grounded both in the Establishment Clause and in the Free Exercise Clause, and it's properly part of RFRA and RLUIPA.    The principal difficulty with the court's landmark decision in Hobby Lobby is that it did not do enough to protect the company's 13,000 employees and their dependents. Doctrinally, the court reaffirmed the principle I have been describing, but nothing in the decision made its ruling contingent on the employees not being harmed, and, in fact, those employees are being harmed right now as we hold this hearing.    Although the Obama administration is working on implementing the solution that the court suggested in its opinion, that solution has not yet been put in place. Not only employees at Hobby Lobby itself, but the employees at other companies affected by the decision are therefore currently without contraception coverage. These thousands of people have suffered harm that may well be irreparable, including unwanted pregnancies and other health problems that medical experts sought to address in the regulation.    Importantly, not every accommodation of religion imposes harm on third parties; therefore, this limitation will not frustrate religious freedom writ large. A good example is the court's recent decision in Holt v. Hobbs, which I applaud. There, a unanimous court held that RLUIPA required a prison to accommodate an inmate, who wished to grow a short beard for religious reasons. Allowing him to do that, despite the prison's grooming policies, shifted no security risks to other fellow inmates. Justice Ginsburg, joined by Justice Sotomayor, wrote separately in Holt to emphasize both that third parties were harmed in the Hobby Lobby decision and that no one would be harmed by the decision in Holt v. Hobbs.    As I mentioned, there are at least three ways that Congress could address this problem. The most direct way would be the one that Representative Conyers suggested: to amend RFRA and RLUIPA to clarify that religion accommodations are not available where extending them would shift meaningful harm to identifiable third parties. RFRA itself is in need of a restoration. This amendment would return its meaning to something that can claim much wider public and bipartisan support than the interpretation that the Supreme Court has given it in Hobby Lobby.    Thanks very much for your time.</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t xml:space="preserve">    Mr. Franks. And I would now recognize our fourth and final witness, Mr. Parshall.</t>
   </si>
   <si>
-    <t>Parshall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Parshall. And thank you, Mr. Chairman, and Ranking Member Mr. Cohen, and distinguished Members of the Subcommittee.    On behalf of the American Center for Law and Justice, thank you for allowing me to address this very important subject of religious freedom under the Religious Freedom Restoration Act, RFRA. Like my colleague, I will focus specifically on RFRA in my testimony.    I make three primary points. First of all, the language of RFRA must not be diminished. If anything, it ought to be expanded to apply to other situations, some of which I have mentioned in my written testimony. I believe, with all due respect, that all three of the suggestions of Professor Tebbe to amend RFRA would not only diminish, but probably substantially undermine the religious liberty rights recognized by RFRA. I'd be glad to address those in any questions that you've got.    Second of all, the success of RFRA itself is proven in a number of different ways; first of all, by the cases that have been mentioned by my colleagues at the dais today, but also, of course, by the Hobby Lobby decision by the Supreme Court, but the necessity, the necessity of RFRA is proven by the Olympian, near impossible legal hurdle that a person has to pass in order to vindicate their religious rights without RFRA, ever since the Smith decision of the Supreme Court. And I'd just mention one case to prove my point about how high that hurdle would be, but for RFRA. The case was LeBlanc-Sternberg v. Fletcher, a Second Circuit Court of Appeals decision.    Now, while RFRA was being debated in Congress, a village in New York state was being formed and a zoning code was being created, the evidence showed, for the specific purpose of keeping Orthodox Jewish citizens out of that area. Despite that, the U.S. District Court entered a judgment as a matter of law against the Orthodox Jewish plaintiffs. I was retained to argue the appeal in the Second Circuit Court of Appeals. We were fortunate to get that decision reversed and the religious rights of those Orthodox Jewish citizens were vindicated.    But it was decided on a Free Exercise claim, not RFRA, because RFRA was not applied in that case. But the only reason that we prevailed is because the village officials made the mistake tactically of having a flood tide of anti-Semitic evidence in the record and then corroborated by the way in which they gerrymandered their zoning code to make sure that Jewish citizens could not have in-home synagogue worship.    But that kind of a situation, individual specific targeting of religious groups, is very, very rare. Invidious anti-religious discrimination is usually much more covert than that, and without RFRA, religious rights in those situations would have absolutely no method of redress since the Smith case. In those cases, like the Holt case, the prison beard case, where there's no evidence that there was intentional hostility against religious belief, more like a thoughtless bureaucratic decision-making that simply failed to understand the high value of religious freedom.    And that brings me to my third point. RFRA, under the rubric of the statute, as correctly interpreted by the Supreme Court, simply says this: if a Federal regulation, statute or action impinges or substantially burdens the sincerely held religious beliefs of individuals, then the burden shifts to the government to prove, number one, that it has a compelling government interest, a very high standard, of an interest, a compelling interest that must overcome that religious burden on the individuals, and then number two, that there are no lesser burdensome alternatives that are available.    Now, why is that burden-shifting appropriate? It's appropriate only if you take a high view of religious liberty. If you take a low view, then you will shift, as Professor Tebbe has suggested, you will shift the burden on the religious person to defend themselves. And I don't think that's what the founders intended, and certainly that's not what RFRA was all about.    I pointed out in my written testimony the research data that shows how Nations globally around the world that have a high value placed on religious liberty have flourished, not only in terms of their economies, but in terms of innovation. I've also cited some of the clear data that indicates that religious America supports an entire private sphere of charitable giving that benefits local communities as a result of the religious liberty climate thus far, as we have allowed it to flourish.    But, then, that should not come as any surprise. Our founders knew how preeminent religious freedom was and ought to be. They, in effect, have given us a sacred trust to protect it. Now the question is, will we honor that trust?    Thank you.</t>
   </si>
   <si>
@@ -292,9 +268,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman.    And I would like to correct the record. And no number of votes taken by the gallery will change the facts. But the gentleman from Tennessee did say he attributed that one of the three things Jefferson wished to be remembered by, as part of his memorial or gravestone, was that he was the father of the Constitution. That was the gentleman's words. I didn't hear which two things he left out.    But I'm a bit surprised, since all of us are not immune from having slips of the tongue, that the gentleman would be so contemptuous of Mr. Goodlatte, because the gentleman did say that----</t>
   </si>
   <si>
@@ -412,9 +385,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Thank you, for the witnesses, for your testimony.    Mr. Tebbe, if I understand you correctly, your objection to Hobby Lobby was that the price of giving Hobby Lobby an exemption from the regulatory mandate was that the employees of Hobby Lobby were made worse off as a result?</t>
   </si>
   <si>
@@ -470,9 +440,6 @@
   </si>
   <si>
     <t>400289</t>
-  </si>
-  <si>
-    <t>Jerrold Nadler</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Nadler. I thank the Chairman.    I want to go into a little of the history here, first of all. I was one of the leaders in the fight for RFRA back in 1993. And along with former Congressman, now Florida Supreme Court Justice Charles Canaday, I was the principal author, along with Charles, of RLUIPA. And the congressional intent at that time--and we did pass it by UC on the floor, with only Charles and I being on the floor at the time, as the last act before we adjourned in 2000.    The U.S. Supreme Court's ruling in Hobby Lobby essentially punched a hole in the Constitution, in my opinion. It took the principle of religious liberty, enshrined in our First Amendment and in RFRA and RLUIPA, and turned it on its head.    The Religious Freedom Restoration Act was intended to be used as a shield, not a sword. It was designed to protect individuals' ability to exercise their religion. It was not intended to allow any of us to impose our religious beliefs on someone else or to use our religion to harm other people.    And I think Mr. Tebbe's distinction between who pays the price, the government or a third-party individual, is exactly apropos.    When we passed RFRA in 1993, it was not intended to excuse for-profit businesses from complying with our laws. Religious belief was not understood to excuse restaurants or hotels from following our civil rights laws enacted in the 1960's or an Amish employer from having to pay into the Social Security system in the 1980's, and I think Ms. Windham mentioned that case.    No matter how sincerely held the religious belief, employers should not be allowed to use their beliefs as a reason to refuse to hire people of the ``wrong,'' in quotes, race or religion or to deny employees access to critical preventative healthcare services required to be provided by law.    Now, let me ask a couple of questions here.    By the way, let me mention that all the cases mentioned by Ms. Windham as RLUIPA cases--the prison beard case, the eagle feather case, the land use cases that were mentioned--all of them, I certainly agree with the outcome. And all of them were well within the purpose--they were exactly why we passed RFRA and why we passed RLUIPA.    The Hobby Lobby case, which is the first case that imposes a burden on third parties, is the exception--not the exception. It's the new--it's an extension of the law, because we never intended that third parties should bear the burden. And Mr. Tebbe made that distinction.    Let me ask you this. We generally provide exemptions in the law. We say that a church--you can't discriminate on religion in hiring, for example. But if you're a church, you can discriminate in hiring as long as the person has to do with the ministry. In other words, you can say, ``We insist on Catholics to be priests.'' You can't say, ``We insist on Catholics to be the janitor.''    Where does that end?</t>
@@ -934,11 +901,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -958,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -986,11 +949,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1010,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1038,11 +997,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1062,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1088,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1114,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1140,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1166,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1192,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1218,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1244,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1272,11 +1213,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1296,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1324,11 +1261,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1350,11 +1285,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1374,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1402,11 +1333,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1428,11 +1357,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1452,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1480,11 +1405,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1506,11 +1429,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1530,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1558,11 +1477,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1584,11 +1501,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1608,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1636,11 +1549,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1660,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1688,11 +1597,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1712,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1738,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1764,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1790,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1816,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1842,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1868,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1894,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1920,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1946,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1972,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1998,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2024,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2050,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2076,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2102,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2128,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2154,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2180,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2206,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2232,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2258,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2284,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2310,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2336,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2362,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2388,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2414,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2440,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2466,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2492,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2518,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2544,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2570,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2596,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2622,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2648,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2674,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2700,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2728,11 +2557,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2752,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2778,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2804,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2830,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2856,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2882,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2908,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2934,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2960,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
         <v>92</v>
-      </c>
-      <c r="H80" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2986,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3012,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3038,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3064,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3092,11 +2893,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3116,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3142,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3168,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3194,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3220,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3246,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3272,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3298,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3324,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3350,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3376,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
-      </c>
-      <c r="G96" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3402,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3428,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>91</v>
-      </c>
-      <c r="G98" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3454,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3480,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
-      </c>
-      <c r="G100" t="s">
-        <v>92</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3508,11 +3277,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3532,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3558,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3584,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3610,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3636,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3662,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3688,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3716,11 +3469,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3740,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3766,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3792,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
-      </c>
-      <c r="G112" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3818,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3844,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
-      </c>
-      <c r="G114" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3870,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3896,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3922,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3948,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
+        <v>122</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>131</v>
-      </c>
-      <c r="G118" t="s">
-        <v>132</v>
-      </c>
-      <c r="H118" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3974,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4000,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>131</v>
-      </c>
-      <c r="G120" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4026,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4052,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
-      </c>
-      <c r="G122" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4078,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4104,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
-      </c>
-      <c r="G124" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4130,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4156,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
-      </c>
-      <c r="G126" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4184,11 +3901,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4208,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>151</v>
-      </c>
-      <c r="G128" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4234,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4260,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>151</v>
-      </c>
-      <c r="G130" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4286,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4312,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>151</v>
-      </c>
-      <c r="G132" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4338,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4364,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>151</v>
-      </c>
-      <c r="G134" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4390,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4416,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>151</v>
-      </c>
-      <c r="G136" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4442,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4468,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>151</v>
-      </c>
-      <c r="G138" t="s">
+        <v>141</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
         <v>152</v>
-      </c>
-      <c r="H138" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4496,11 +4189,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4520,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>151</v>
-      </c>
-      <c r="G140" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4548,11 +4237,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4572,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>151</v>
-      </c>
-      <c r="G142" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4598,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>44</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4626,11 +4309,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4650,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4678,11 +4357,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4702,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4730,11 +4405,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93282.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,30 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Good morning. The quest for true religious freedom is one of humanity's greatest and most enduring dreams. Indeed, America's forebears fled the tyrannies of religious oppression abroad in the longing hope that America would be the place where they would find that freedom yearned for in every human heart to live according to the convictions of their faith.    Our Founding Fathers recognized and protected this foundational human right by enshrining it forever in the very first amendment to the United States Constitution. It states very simply and clearly that ``Congress shall make no law respecting an establishment of religion or prohibiting the free exercise thereof.''    Those noble, straightforward words, because of their enormous meaning and implication, have often been the target of distortion and attack. In 1990, the Supreme Court handed down the Employment Division v. Smith decision. It set the bar so low in allowing for the Government's infringing on religious freedom, that in many cases individuals could not successfully challenge overreaching laws that contradicted their faith. The Smith decision was widely regarded as one of the most radical departures from this long-settled Constitutional doctrine in American history.    In response to the Smith decision, with incredibly broad bipartisan support, Congress passed the Religious Freedom Restoration Act in 1993. That law restored the pre-Smith compelling interest standard, and along with it, religious liberty in America.    And in 2000, in direct response to another Supreme Court decision that threatened religious liberty, Congress passed the Religious Land Use and Institutionalized Persons Act, which prohibits the application of neutral and generally applicable laws in ways that substantially burden religion related to zoning, land marking, and prisons.    In his written testimony before the Senate Judiciary Committee on September 18th, 1992, Professor Douglas Laycock stated, ``there is a simple reason why formerly neutral laws sometimes lead to religious persecution: because once government demands that religious minorities conform their behavior to secular standards, there is no logical stopping point. Sometimes the government will back off and create an exemption, but often the bureaucracy will grind forward, and persecution will be the result.''    These critical statutes exist today because a broad group of lawmakers, organizations and Americans from both sides of the aisle believe that religious freedom was and is far more vital than that afforded by those profoundly flawed Supreme Court decisions. Support for religious freedom remains one of the very strongest commitments of the American people. According to a December 2012 Gallup Poll, nearly 70 percent of American adults are very religious or moderately religious, based on self-reports of the importance of religion in their daily lives and attendance at religious services.    Despite its critical importance to our Republic and a clear message from Congress and the American people, this current Administration's attitude toward religious freedom is nothing short of alarming. The Obama administration has consistently failed to recognize that religious liberty involves much more than the freedom to believe in any religion or none at all, rather, that religious liberty is exercised both in private and in public, informing all areas of an individual's life.    Religion in the United States has never been forcibly confined to one's church or one's home. In spite of the Constitution's clear provisions for the accommodation of religion, this Administration has repeatedly failed to create and honor needed religious exemptions from otherwise neutral laws.    In the last 3 years, the United States Supreme Court has ruled in favor of religious plaintiffs and against this Administration five times. Indeed, three of those five cases have been unanimous. This is stunning evidence of the Obama administration's failure to honor religious freedom in America.    My friends, the central phrase, the central phrase of America's Declaration of Independence is itself a statement of religious conviction. It states clearly that we are all created, and that is what makes us equal, and further, that each of us is endowed by our creator with the unalienable rights of life, liberty and the pursuit of happiness. It is so unfortunate that we must repeatedly remind the Obama administration that religious freedom is the very cornerstone of all other freedoms and that if it is lost, all other freedoms will ultimately be lost with it.    I look forward to today's examination of the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act. And I would like to thank our witnesses for being here.    And I will now yield to the distinguished Ranking Member of the full Committee for an opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman.    Members of the Committee, religious freedom, of course, was one of the core principles upon which our Nation was founded. This freedom was important enough that protections against unwarranted government intrusion into religious practice was enshrined in the First Amendment to our Constitution, and that is also why, after the Supreme Court in Employment Division v. Smith eliminated the compelling interest test for scrutinizing free exercise clause claims, a bipartisan coalition helped to shepherd the Religious Freedom Restoration Act of 1993 into law to restore those earlier protections.    The act has successfully helped to protect religious liberty over the last generation, yet recent developments have been troubling for those of us who believe that exemptions from generally applicable laws shouldn't be used to undermine women's health or the guarantee of equal treatment under the law. Unfortunately, in my view, the Supreme Court subverted congressional intent and undermined the act's purpose in Burwell v. Hobby Lobby. In that decision, the court held that for-profit corporations were entitled to an exemption under the Religious Freedom Restoration Act from the Affordable Care Act's contraception mandate because of the corporate owner's religious objection to the mandate.    To reach that holding, the court had to conclude that the precedents governing the Free Exercise Clause prior to Smith no longer governed interpretations of the Religious Freedom Restoration Act. That conclusion, to me, is contrary to what Congress intended when it passed the act. Indeed, the statute itself unambiguously made clear that its purpose was to restore the compelling interest test that applied to governmental burdens on the free exercise of religion prior to Smith.    Pre-Smith law was clear that commercial enterprises were not entitled to religious exemptions under the Free Exercise Clause. Also, as Justice Ginsburg noted in her strong dissent, no Constitutional tradition nor any prior decision interpreting this act allowed religious exemptions when such an accommodation harmed third parties. Yet that is exactly what happened in Hobby Lobby when the court denied contraceptive coverage to the company's women employees and shifted the costs of Hobby Lobby's religious accommodation onto those women.    A particularly troubling implication of the court's broad and unsupported interpretation of the Religious Freedom Restoration Act is that for-profit commercial entities can now seek exemptions from other generally applicable laws, including anti-discrimination laws. This clear threat to anti-discrimination laws could include efforts by businesses to exempt themselves under State versions of the Religious Freedom Restoration Act from State and local laws prohibiting discrimination on the basis of sexual orientation or gender.    It could also manifest itself in efforts by for-profit businesses to exempt themselves from any Federal efforts to combat discrimination against members of the lesbian, gay, bisexual and transgender communities, such as President Obama's executive order prohibiting discrimination against such individuals who are employees of Federal contractors.    And notwithstanding the assurances of the court's Hobby Lobby majority, it is entirely possible that a business claiming a sincerely held religious belief, for example, in White supremacy, could justify exemptions from Federal civil rights laws.    At the very least, we in Congress must examine how the Religious Freedom Restoration Act can be amended to address the very problematic reasoning of the Hobby Lobby decision.    While there is broad bipartisan support for the Religious Freedom Restoration Act and for strong protection of religious liberty, we have to acknowledge that we live in a pluralistic and religiously diverse society.    The act was meant to protect all, not to favor some at others' expense, and so at a minimum, we here should amend the act to address third-party harm to make clear that pre-Smith Free Exercise Clause precedents apply and limit the act's interpretation.    I thank you, Mr. Chairman.    I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman.    And I now yield to the Chairman of the full Committee, Mr. Goodlatte, from Virginia.</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    In 1777, Thomas Jefferson drafted a bill for establishing religious freedom. Introduced in the Virginia General Assembly in 1779, it was enacted into law on January 16, 1786, as the Virginia Statute for Religious Freedom. Last month we honored the Virginia Statute for Religious Freedom's 229th anniversary.    This Virginia law remains relevant today. In addition to being a model for the Free Exercise Clause of the First Amendment, its language continues to provide wisdom. The statute, for example, states in part, the opinions of men are not the object of civil government, nor under its jurisdiction.    This morning the Subcommittee on the Constitution and Civil Justice will examine the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act. These two laws are vitally important means of protecting religious liberty in the United States and individuals' opinions from an interceding government.    The Religious Freedom Restoration Act prohibits the Federal Government from substantially burdening a person's exercise of religion even if the burden results from a rule of general applicability. The exception is that the government may burden a person's exercise of religion only if it demonstrates that application of the burden to the person, one, furthers a compelling governmental interest, and two, is the least restrictive means of furthering that compelling governmental interest.    I cosponsored this legislation when the Religious Freedom Restoration Act passed the House and Senate and was signed by the President in the 103rd Congress, and I was amazed at the incredible bipartisan support the bill generated. Senator Charles Schumer, who was then representing the Ninth District of New York in the House and a Member of this Committee, introduced the bill. By the time the bill passed by a voice vote, it had the support of 170 cosponsors from both sides of the aisle.    A diverse array of organizations formed a bipartisan coalition to support this bill. This coalition included over 50 organizations, including the American Civil Liberties Union, Americans United for the Separation of Church and State, the Home School Legal Defense Association, the Traditional Values Coalition, Concerned Women for America, and the Christian Life Commission of the Southern Baptist Convention. It was incredible to see all sides come together for such an important piece of legislation.    Reflecting the same language as the Religious Freedom Restoration Act, the Religious Land Use and Institutionalized Persons Act prohibits any government from imposing or implementing a land use regulation in a manner that places a substantial burden on the religious exercise of a person, including a religious assembly or institution, unless the government demonstrates the burden, one, is in furtherance of a compelling governmental interest, and two, is the least restrictive means of furthering that compelling governmental interest.    It provides a similar religious protection for institutionalized persons, including prisoners. Congress made it clear that the Federal Government must provide religious accommodations in our laws, and any laws passed that infringe upon religious freedom must be subject to the strictest scrutiny in our courts.    And while religious liberty remains threatened, I am nevertheless encouraged by recent Supreme Court decisions in favor of religious plaintiffs. These cases indicate the religious protections passed by Congress are working. While not determining the outcome of any case, these crucial statutes provide individuals with practical and meaningful ways to challenge government infringements on their religious beliefs in court.    I want to thank all of our witnesses for coming today and I look forward to their testimony.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,6 +88,12 @@
     <t>412236</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chairman.    Today is the first hearing of this particular Subcommittee, and I am the Ranking Member again, and I appreciate that opportunity to serve, and I appreciate serving with Chairman Franks. We have served together as Chair and Ranking Member, and this is a Committee that gets some very emotional issues where people have strong opinions on each side, and yet Mr. Franks has always remained civil and respectful toward the--our side, despite the fact that his opinions are light years away. It is a large universe and we encompass it, but we do it in a good manner, and I appreciate that.    The freedom to practice one's religious free from undue governmental influences is particularly special in American history, and the First Amendment guarantees the right to freedom of religion, along with speech and petition, and our First Amendment protections. And Thomas Jefferson, as Mr. Goodlatte mentioned, he is a big fan of Jefferson's, as am I, has on his resting place in Virginia three things: that he was the father of the Constitution, that he was the founder of the University of Virginia, and that he was the author of the declaration of religious independence or freedoms; nothing about being President or Secretary of State or any of those things, they were mundane, because it was values and ideas and education and liberty and freedom that was so important to him.    He has on the Jefferson Memorial, of course, he doesn't have this, the descendants have this, one of his particular quotes is that, ``I swear upon the altar of God eternal hostility toward all forms of tyranny over the mind of man.''    It is important that we understand that as our Founding Father's legacy and that we adhere to it, and we did in passing the Religious Freedom Restoration Act here. I was not here at the time. Mr. Goodlatte was.    But I was in the Tennessee State Senate, and I passed the Tennessee RFRA law and I was proud to do it. And there was that great coalition, as he mentioned here, of the ACLU to the Southern Baptist Convention, or something associated therewith, and all kind of diverse religious groups and folks about the First Amendment were all for it. And that was wonderful. And it was about, really, Employment Division v. Smith, and it was a direct reaction to that case that RFRA was passed with this broad bipartisan support and that we passed it in Tennessee as well.    Unfortunately, our Supreme Court, in its corporatization of America, which of course has also been part of the work of this Congress, took religious freedom from the ideas that were really held by Jefferson and others about individuals being oppressed by the government and gave it to corporations, and nobody had ever envisioned that, like nobody had envisioned corporations having the right to have free speech, free speech in the thousands and hundreds of thousands and millions of dollars to influence legislation and who gets elected and how the laws are made so that the tax rates are appropriate for those who have much so they could have much more and do much more trickle-down.    So the corporatization of America has taken place, and the courts did it in this case, and that is what happened and what broke apart that great bipartisan coalition that we were so proud of in passing RFRA.    To be concerned about the Hobby Lobby case, which is part of a whole series of cases with the Supreme Court and legislative actions that nobody would have envisioned, giving corporations rights and worshiping to the altar of the corporate god does not mean you are against religion. You can still be for religion.    And I am for religion and I'm for the separation of church and state and I'm for the First Amendment and I'm for RFRA as it was envisioned when it was passed and restore those pre-Smith laws, but the Hobby Lobby decision was aberrant, and that's why I and many other people who have deep--thought and felt commitments to religious liberty oppose Hobby Lobby decision, they still believe in RFRA, and they just think RFRA went too long.    It was an activist court, activist in the worst way, activists that gave powers to people that we never envisioned; not activists that went far to give minorities opportunity and minorities rights. It went far to give corporations rights. That's the wrong type of activism, in my opinion.    But I look forward to this hearing and listening to all of the witnesses and working with Mr. Franks as we go forward.</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t xml:space="preserve">    Mr. Franks. The man is from Virginia.    Let me now introduce our witnesses. Our first witness is Lori Windham, senior counsel at the Becket Fund For Religious Freedom--for Religious Liberty. Ms. Windham has represented a variety of religious groups at every level, from the district courts to the Supreme Court. Her work includes the cases under the Free Exercise Clause, Establishment Clause, RFRA, and RLUIPA. We're glad you're here.    Our second witness is Gregory Baylor, senior counsel with Alliance Defending Freedom. Mr. Baylor litigates cases to protect the rights of religious students, faculty and staff at public colleges and universities across the Nation. Prior to joining Alliance Defending Freedom in 2009, he served as director with the Christian Legal Society Center for Law and Religious Freedom, where he defended religious liberty since 1994.    Our third witness, Professor Nelson Tebbe, teaches courses on Constitutional law, religious freedom, legal theory, and professional responsibility at Brooklyn Law School. Professor Tebbe is a co-organizer of the annual Law and Religion Roundtable and has previously served as the chair of the Law and Religion section of the Association of American Law Schools.    Our fourth and final witness, Craig Parshall, is special counsel to the American Center for Law and Justice. In addition to being a senior law and policy advisor to Washington, D.C.-based groups, Mr. Parshall writes and speaks about trends in Constitutional issues, culture, religion and media technology. He previously served as senior vice-president and general counsel at National Religious Broadcasters and was the founding director of the John Milton Project for Free Speech. Welcome, sir.    Now, each of the witness' written statements will be entered into the record in its entirety, and I would ask each witness to summarize his or her testimony within 5 minutes or less. To help you stay within that time, there is a timing light in front of you. The lights will switch from green to yellow in concluding, indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    Before I recognize the witness, it is the tradition of the Subcommittee that they be sworn. So if you'd please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth and nothing but the truth, so help you God?    You may be seated.    Let the record reflect that the witnesses answered in the affirmative.    I now recognize our first witness, Ms. Windham. And, Ms. Windham, if you want to make sure we turn on that microphone before you start. Yes, ma'am.</t>
   </si>
   <si>
+    <t>Windham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Windham. Thank you, Chairman Franks, vice-chairman DeSantis, and other distinguished Members of the Subcommittee. Good morning.    Thank you for the invitation and opportunity to testify on the importance of the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act.    I represent the Becket Fund for Religious Liberty, where I serve as senior counsel. The Becket Fund is a non-profit public interest law firm dedicated to protecting the free expression of all religious traditions. For over 20 years, it has defended clients of all faiths, including Buddhists, Christians, Jews, Hindus, Muslims, Native Americans, Sikhs and other faith groups.    Its recent cases include three major Supreme Court victories: a unanimous ruling in a RLUIPA case, Holt v. Hobbs; the RFRA case of Burwell v. Hobby Lobby; and another unanimous ruling in Hosanna-Tabor v. EEOC.    Today I'd like to highlight the positive impacts of RFRA and RLUIPA for protecting the rights of Americans of all faiths, well known and little known, large and small. One example. According to documents released by the Department of the Interior, the department had an operation called Operation Pow-Wow.    Under Operation Pow-Wow, the department sent an undercover Federal agent to covertly enter a sacred Native American religious ceremony. While there, he questioned the participants, observed the ceremony, refused to leave after being asked to do so. The reason for this, the department was looking to see if the Native Americans in their religious ceremony were using permitted or non-permitted eagle feathers. The Becket Fund now represents Robert Soto, a renowned feather dancer and ordained religious leader in the Lipan Apache tribe, a tribe that has used eagle feathers as sacred emblems for centuries.    Federal law grants eagle feather permits to museums, scientists, zoos, farmers and other interests. It even allows wind farms to kill eagles. The Federal Government grants permits for some religious uses, but only if the person is a member of a federally-recognized tribe. Mr. Soto's tribe is recognized by historians, sociologists and the State of Texas, but not by the Federal Government. He is not even allowed to use loose eagle feathers picked up off the ground.    Applying RFRA and Hobby Lobby precedent, the Fifth Circuit ruled against Operation Pow-Wow and for Mr. Soto. Mr. Soto is currently continuing his case in Federal court. As this case shows, RLUIPA's protections, RFRA's protections are still vital today.    When RFRA was passed in 1993, the bill was supported by one of the broadest coalitions in recent political history, with 66 religious and civil liberties groups, including Christians, Jews, Muslims, Sikhs, humanists, and secular civil liberties organizations. RFRA passed with unanimous support in the House and virtually unanimous support in the Senate.    RLUIPA, like RFRA, was enacted with overwhelming bipartisan support. It passed both the House and Senate by unanimous consent. In his signing statement, President Clinton noted that RLUIPA once again demonstrates that people of all political bents and faiths can work together for a common purpose that benefits all Americans.    RLUIPA has provided critical protections for religious exercise. The Supreme Court's recent decision in Holt v. Hobbs, another Becket Fund case, is an excellent example. There, the Supreme Court used RLUIPA to protect a Muslim prison inmate who sought to grow a religiously mandated half-inch beard. The Court recognized that government bureaucrats cannot use arbitrary double standards granting secular exemptions but not similar religious exemptions.    The unanimous Supreme Court explained that RLUIPA affords prison officials ample ability to maintain security. At the same time, RLUIPA requires government officials to scrutinize the asserted harm of granting specific exemptions to particular religious claimants. This is consistent with the statement made by RLUIPA's sponsors, Senators Hatch and Kennedy, who emphasized that inadequately formulated prison regulations and policies grounded on mere speculation, exaggerated fears, or post hoc rationalizations will not suffice to meet the act's requirements.    RLUIPA's land use provisions have allowed houses of worship across the Nation to escape discriminatory or substantially burdensome land use restrictions. RLUIPA protected a Muslim congregation in New Jersey after the City labeled the proposed mosque a public nuisance and tried to seize its land.    One of the earliest RLUIPA victories was for a Christian church in California when the City attempted to seize its land and build a Costco in its place. RLUIPA also protected a Sikh temple when a local government repeatedly gave contradictory reasons for denying its land use applications.    Protection for religious freedom, even when religious practices conflict with otherwise applicable law, is an important part of our Nation's history. We applaud Congress' commitment to the principle that religious freedom is fundamental human freedom and human dignity.    I thank you for your time and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -109,6 +133,9 @@
     <t xml:space="preserve">    Mr. Franks. And I would now recognize our second witness, Mr. Baylor. And, sir, please turn on your microphone. You got it.</t>
   </si>
   <si>
+    <t>Baylor</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Baylor. Thank you. My name is Gregory Baylor and I serve as senior counsel with Alliance Defending Freedom, a non-profit legal organization that advocates for religious liberty, the sanctity of life, marriage and the family through strategy, funding, training and litigation.    I appreciate very much the opportunity to testify today regarding the Religious Freedom Restoration Act and the Religious Land Use and Institutionalized Persons Act. I will focus my testimony on RFRA.    In response to a damaging and unexpected Supreme Court decision, Congress restored robust legal protection for religious exercise when it enacted the Religious Freedom Restoration Act in 1993. The coalition supporting RFRA and the foundational principles underlying it was remarkably broad and diverse.    Over 20 years later, support for those principles and perhaps for RFRA itself has notably waned in some quarters. Given this unfortunate development, I think, I believe that a look back at RFRA's enactment and the circumstances surrounding it is warranted.    Beginning in 1963, the United States Supreme Court held that government burdens on religious exercise violate the First Amendment's Free Exercise Clause unless those burdens are justified by interests of the highest order. Under this approach, the court protected, for example, the rights of a Seventh Day Adventist who declined work on her sabbath, and it protected the rights of Old Order Amish families to make religiously-based decisions about the schooling of their children.    In each case, the court understood that most government burdens on religious exercise come from facially neutral and generally applicable laws, ones that do not single out religion for especially disfavored treatment. The court acknowledged also that although important government interests were behind the laws in question in these cases, the State failed to prove that exempting these claimants would unacceptably danger what the court called paramount interests. The court also indicated that government could use other, less restrictive means to pursue its stated goals.    The Supreme Court, of course, unexpectedly abandoned this approach to free exercise in 1990 in Employment Division v. Smith, as has been said. The court concluded that facially neutral laws of general applicability burdening religious exercise generally require no special justifications to satisfy Free Exercise Clause scrutiny.    A large number of religious and civil rights organizations promptly formed the Coalition for the Free Exercise of Religion to urge Congress to restore strong legal protections for religious liberty. The 68-member, or 66- or 54-, I've heard different numbers, member coalition included the Baptist Joint Committee for Religious Liberty, the American Jewish Congress, Americans United for Separation of Church and State, Christian Legal Society, the American Civil Liberties Union, Agudath Israel of America, and the National Association of Evangelicals. The coalition drafted and advocated for legislation designed to restore strict scrutiny to Free Exercise cases. Large numbers of Congressmen and Senators from both sides of the aisle co-sponsored RFRA.    Lawmakers and advocates for the bill emphasized a number of key themes. First, they observed that pervasive governmental regulation adversely affects adherents of all faiths, large or small.    Second, they stressed that RFRA merely set forth the relevant test that judges and other government officials should apply when examining claims of free exercise. RFRA didn't dictate the results in particular cases.    Third, and relatedly, and I think this goes to some of the comments that have already been made, Congress and RFRA's diverse supporters were well aware that the statute's protections might be relevant in cases involving emotionally charged, so-called culture war issues.    Congress subsequently voted overwhelmingly to enact RFRA. It passed the Senate, as has been said, by a vote of 97 to 3, and it passed the House by unanimous voice vote.    Now, recounting this history I hope will help serve as a corrective to the current impulse to doubt the wisdom of that Congress and of the very broad spectrum of individuals and organizations who labored to restore adequate legal protection of religious exercise.    That impulse is driven in no small part by the Supreme Court's relatively recent decision in Burwell v. Hobby Lobby Stores. In that case, of course, the court held that the Federal Government violated RFRA by threatening to impose crippling fines upon family business owners who refused, for reasons of conscience, to include abortion-inducing drugs and devices in their employee health plans.    Unhappiness with the outcome of that case has contributed to a growing skepticism, even hostility, toward RFRA and its underlying principles; indeed, those that have--that would have partially repealed RFRA were introduced last summer in the wake of the Hobby Lobby decision. Thankfully, RFRA survived.    I urge Congress to resist any further efforts to undermine the Religious Freedom Restoration's Act indispensable protection of our first freedom.    Thank you again for the opportunity to testify. I look forward to addressing any questions Members of the Subcommittee may have.</t>
   </si>
   <si>
@@ -118,6 +145,9 @@
     <t xml:space="preserve">    Mr. Franks. And I would now recognize our third witness, Mr. Tebbe.    Mr. Tebbe, please turn your microphone on.</t>
   </si>
   <si>
+    <t>Tebbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tebbe. Good morning, Chairman Franks and distinguished Members of the Subcommittee.    Thank you for the opportunity, for allowing me to testify on these important questions of religious freedom and equality law. It's an honor to be here, and I look forward to answering your questions.    At least since the Supreme Court's recent decisions in Hobby Lobby and Holt v. Hobbs, debate has been intensifying concerning the two statutes that we are discussing today, the Religious Freedom Restoration Act, or RFRA, and the Religious Land Use and Institutionalized Persons Act, or RLUIPA.    In my testimony, I would like to highlight one problem with how RFRA has been applied, namely, the Hobby Lobby court shifted the cost of accommodating the employer's religious beliefs onto the employees, who may not share those beliefs. That violated a core principle of Constitutional law. While ordinarily the costs of accommodating religious citizens are borne by the government or by the public, here those costs were shifted onto the shoulders of other private citizens.    Protecting religious freedom is critically important, but it cannot come at the cost of meaningful harm to identifiable third parties. Not only should doing that be avoided as a policy matter, but it also violates the religion clauses of the Constitution.    There are at least three ways that the Congress could address this problem. First, it could amend RFRA and RLUIPA to make them inapplicable when accommodating religious actors shifts meaningful harm to identifiable private citizens.    Second, it could amend the statutes to make them inapplicable to commercial actors, which tend to have significant impact on individuals and on the public.    Third, Congress could clarify that it did not intend RFRA and RLUIPA to break completely with judicial precedence under the Free Exercise Clause, case law that embodies the Constitutional principle I have been describing.    Each of these changes would improve the statutes by ensuring that their application conforms with Constitutional principle against shifting costs of religious freedom for some private citizens onto the shoulders of other private citizens.    In its Establishment Clause cases, the Court has invalidated laws that accommodate religious people by shifting costs to others. For example, the court invalidated a Connecticut statute that required all employers to allow employees who observe a sabbath to take that holiday off. The court held that Connecticut law ``contravenes a fundamental principle of the religion clauses, namely, that the First Amendment gives no one the right to insist that in pursuit of their own interests, others must conform their conduct to his own religious necessities.''    In its Free Exercise cases, similarly, the court has denied relief that would mean harming other private citizens. For example, the court refused to grant an exemption to an Amish employer who is theologically opposed to paying Social Security taxes on behalf of his employees. The court held that granting the exemption would impose an unacceptable cost on the third-party employees.    So this legal rule is grounded both in the Establishment Clause and in the Free Exercise Clause, and it's properly part of RFRA and RLUIPA.    The principal difficulty with the court's landmark decision in Hobby Lobby is that it did not do enough to protect the company's 13,000 employees and their dependents. Doctrinally, the court reaffirmed the principle I have been describing, but nothing in the decision made its ruling contingent on the employees not being harmed, and, in fact, those employees are being harmed right now as we hold this hearing.    Although the Obama administration is working on implementing the solution that the court suggested in its opinion, that solution has not yet been put in place. Not only employees at Hobby Lobby itself, but the employees at other companies affected by the decision are therefore currently without contraception coverage. These thousands of people have suffered harm that may well be irreparable, including unwanted pregnancies and other health problems that medical experts sought to address in the regulation.    Importantly, not every accommodation of religion imposes harm on third parties; therefore, this limitation will not frustrate religious freedom writ large. A good example is the court's recent decision in Holt v. Hobbs, which I applaud. There, a unanimous court held that RLUIPA required a prison to accommodate an inmate, who wished to grow a short beard for religious reasons. Allowing him to do that, despite the prison's grooming policies, shifted no security risks to other fellow inmates. Justice Ginsburg, joined by Justice Sotomayor, wrote separately in Holt to emphasize both that third parties were harmed in the Hobby Lobby decision and that no one would be harmed by the decision in Holt v. Hobbs.    As I mentioned, there are at least three ways that Congress could address this problem. The most direct way would be the one that Representative Conyers suggested: to amend RFRA and RLUIPA to clarify that religion accommodations are not available where extending them would shift meaningful harm to identifiable third parties. RFRA itself is in need of a restoration. This amendment would return its meaning to something that can claim much wider public and bipartisan support than the interpretation that the Supreme Court has given it in Hobby Lobby.    Thanks very much for your time.</t>
   </si>
   <si>
@@ -127,6 +157,9 @@
     <t xml:space="preserve">    Mr. Franks. And I would now recognize our fourth and final witness, Mr. Parshall.</t>
   </si>
   <si>
+    <t>Parshall</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Parshall. And thank you, Mr. Chairman, and Ranking Member Mr. Cohen, and distinguished Members of the Subcommittee.    On behalf of the American Center for Law and Justice, thank you for allowing me to address this very important subject of religious freedom under the Religious Freedom Restoration Act, RFRA. Like my colleague, I will focus specifically on RFRA in my testimony.    I make three primary points. First of all, the language of RFRA must not be diminished. If anything, it ought to be expanded to apply to other situations, some of which I have mentioned in my written testimony. I believe, with all due respect, that all three of the suggestions of Professor Tebbe to amend RFRA would not only diminish, but probably substantially undermine the religious liberty rights recognized by RFRA. I'd be glad to address those in any questions that you've got.    Second of all, the success of RFRA itself is proven in a number of different ways; first of all, by the cases that have been mentioned by my colleagues at the dais today, but also, of course, by the Hobby Lobby decision by the Supreme Court, but the necessity, the necessity of RFRA is proven by the Olympian, near impossible legal hurdle that a person has to pass in order to vindicate their religious rights without RFRA, ever since the Smith decision of the Supreme Court. And I'd just mention one case to prove my point about how high that hurdle would be, but for RFRA. The case was LeBlanc-Sternberg v. Fletcher, a Second Circuit Court of Appeals decision.    Now, while RFRA was being debated in Congress, a village in New York state was being formed and a zoning code was being created, the evidence showed, for the specific purpose of keeping Orthodox Jewish citizens out of that area. Despite that, the U.S. District Court entered a judgment as a matter of law against the Orthodox Jewish plaintiffs. I was retained to argue the appeal in the Second Circuit Court of Appeals. We were fortunate to get that decision reversed and the religious rights of those Orthodox Jewish citizens were vindicated.    But it was decided on a Free Exercise claim, not RFRA, because RFRA was not applied in that case. But the only reason that we prevailed is because the village officials made the mistake tactically of having a flood tide of anti-Semitic evidence in the record and then corroborated by the way in which they gerrymandered their zoning code to make sure that Jewish citizens could not have in-home synagogue worship.    But that kind of a situation, individual specific targeting of religious groups, is very, very rare. Invidious anti-religious discrimination is usually much more covert than that, and without RFRA, religious rights in those situations would have absolutely no method of redress since the Smith case. In those cases, like the Holt case, the prison beard case, where there's no evidence that there was intentional hostility against religious belief, more like a thoughtless bureaucratic decision-making that simply failed to understand the high value of religious freedom.    And that brings me to my third point. RFRA, under the rubric of the statute, as correctly interpreted by the Supreme Court, simply says this: if a Federal regulation, statute or action impinges or substantially burdens the sincerely held religious beliefs of individuals, then the burden shifts to the government to prove, number one, that it has a compelling government interest, a very high standard, of an interest, a compelling interest that must overcome that religious burden on the individuals, and then number two, that there are no lesser burdensome alternatives that are available.    Now, why is that burden-shifting appropriate? It's appropriate only if you take a high view of religious liberty. If you take a low view, then you will shift, as Professor Tebbe has suggested, you will shift the burden on the religious person to defend themselves. And I don't think that's what the founders intended, and certainly that's not what RFRA was all about.    I pointed out in my written testimony the research data that shows how Nations globally around the world that have a high value placed on religious liberty have flourished, not only in terms of their economies, but in terms of innovation. I've also cited some of the clear data that indicates that religious America supports an entire private sphere of charitable giving that benefits local communities as a result of the religious liberty climate thus far, as we have allowed it to flourish.    But, then, that should not come as any surprise. Our founders knew how preeminent religious freedom was and ought to be. They, in effect, have given us a sacred trust to protect it. Now the question is, will we honor that trust?    Thank you.</t>
   </si>
   <si>
@@ -268,6 +301,12 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman.    And I would like to correct the record. And no number of votes taken by the gallery will change the facts. But the gentleman from Tennessee did say he attributed that one of the three things Jefferson wished to be remembered by, as part of his memorial or gravestone, was that he was the father of the Constitution. That was the gentleman's words. I didn't hear which two things he left out.    But I'm a bit surprised, since all of us are not immune from having slips of the tongue, that the gentleman would be so contemptuous of Mr. Goodlatte, because the gentleman did say that----</t>
   </si>
   <si>
@@ -385,6 +424,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Thank you, for the witnesses, for your testimony.    Mr. Tebbe, if I understand you correctly, your objection to Hobby Lobby was that the price of giving Hobby Lobby an exemption from the regulatory mandate was that the employees of Hobby Lobby were made worse off as a result?</t>
   </si>
   <si>
@@ -440,6 +485,12 @@
   </si>
   <si>
     <t>400289</t>
+  </si>
+  <si>
+    <t>Nadler</t>
+  </si>
+  <si>
+    <t>Jerrold</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Nadler. I thank the Chairman.    I want to go into a little of the history here, first of all. I was one of the leaders in the fight for RFRA back in 1993. And along with former Congressman, now Florida Supreme Court Justice Charles Canaday, I was the principal author, along with Charles, of RLUIPA. And the congressional intent at that time--and we did pass it by UC on the floor, with only Charles and I being on the floor at the time, as the last act before we adjourned in 2000.    The U.S. Supreme Court's ruling in Hobby Lobby essentially punched a hole in the Constitution, in my opinion. It took the principle of religious liberty, enshrined in our First Amendment and in RFRA and RLUIPA, and turned it on its head.    The Religious Freedom Restoration Act was intended to be used as a shield, not a sword. It was designed to protect individuals' ability to exercise their religion. It was not intended to allow any of us to impose our religious beliefs on someone else or to use our religion to harm other people.    And I think Mr. Tebbe's distinction between who pays the price, the government or a third-party individual, is exactly apropos.    When we passed RFRA in 1993, it was not intended to excuse for-profit businesses from complying with our laws. Religious belief was not understood to excuse restaurants or hotels from following our civil rights laws enacted in the 1960's or an Amish employer from having to pay into the Social Security system in the 1980's, and I think Ms. Windham mentioned that case.    No matter how sincerely held the religious belief, employers should not be allowed to use their beliefs as a reason to refuse to hire people of the ``wrong,'' in quotes, race or religion or to deny employees access to critical preventative healthcare services required to be provided by law.    Now, let me ask a couple of questions here.    By the way, let me mention that all the cases mentioned by Ms. Windham as RLUIPA cases--the prison beard case, the eagle feather case, the land use cases that were mentioned--all of them, I certainly agree with the outcome. And all of them were well within the purpose--they were exactly why we passed RFRA and why we passed RLUIPA.    The Hobby Lobby case, which is the first case that imposes a burden on third parties, is the exception--not the exception. It's the new--it's an extension of the law, because we never intended that third parties should bear the burden. And Mr. Tebbe made that distinction.    Let me ask you this. We generally provide exemptions in the law. We say that a church--you can't discriminate on religion in hiring, for example. But if you're a church, you can discriminate in hiring as long as the person has to do with the ministry. In other words, you can say, ``We insist on Catholics to be priests.'' You can't say, ``We insist on Catholics to be the janitor.''    Where does that end?</t>
@@ -851,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,3533 +932,4153 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
       <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
       <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
       <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>95</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G78" t="s">
+        <v>95</v>
+      </c>
       <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s">
+        <v>95</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G82" t="s">
+        <v>95</v>
+      </c>
       <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s">
+        <v>95</v>
+      </c>
       <c r="H84" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>83</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G86" t="s">
+        <v>95</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>83</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G88" t="s">
+        <v>95</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
       <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G92" t="s">
+        <v>95</v>
+      </c>
       <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G94" t="s">
+        <v>95</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G96" t="s">
+        <v>95</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G98" t="s">
+        <v>95</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G100" t="s">
+        <v>95</v>
+      </c>
       <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>43</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G110" t="s">
+        <v>136</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>43</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G112" t="s">
+        <v>136</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>43</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G114" t="s">
+        <v>136</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>43</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>122</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G116" t="s">
+        <v>136</v>
+      </c>
       <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>43</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>122</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G118" t="s">
+        <v>136</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>43</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>122</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s">
+        <v>136</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>122</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s">
+        <v>136</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>122</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s">
+        <v>136</v>
+      </c>
       <c r="H124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>39</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>122</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G126" t="s">
+        <v>136</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G128" t="s">
+        <v>157</v>
+      </c>
       <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>43</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>141</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G130" t="s">
+        <v>157</v>
+      </c>
       <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>43</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G132" t="s">
+        <v>157</v>
+      </c>
       <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>43</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>141</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G134" t="s">
+        <v>157</v>
+      </c>
       <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>43</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>141</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G136" t="s">
+        <v>157</v>
+      </c>
       <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>141</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G138" t="s">
+        <v>157</v>
+      </c>
       <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>141</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G140" t="s">
+        <v>157</v>
+      </c>
       <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>141</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G142" t="s">
+        <v>157</v>
+      </c>
       <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>47</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>24</v>
+      </c>
       <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
       <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93282.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Franks</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>412236</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cohen</t>
   </si>
   <si>
@@ -301,6 +310,9 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Gohmert</t>
   </si>
   <si>
@@ -422,6 +434,9 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>DeSantis</t>
@@ -902,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +925,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,4150 +950,4476 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H82" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G84" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H84" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>42</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H90" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>39</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>42</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H92" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H94" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>39</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>42</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G98" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H98" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H100" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>43</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>39</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>42</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G110" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>43</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G112" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>43</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G114" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I114" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G116" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>43</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>46</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G118" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s">
-        <v>43</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s">
-        <v>43</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>46</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G122" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>39</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>42</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G124" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H124" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>39</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>42</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G126" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H126" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G128" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I128" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>43</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G130" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>43</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G132" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I132" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>43</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G134" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>43</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>46</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G136" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I136" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
-        <v>43</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I138" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G140" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H140" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I140" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G142" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I142" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s">
-        <v>47</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>50</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G145" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H145" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I145" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G147" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H147" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I147" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>179</v>
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
